--- a/Symphony/2021/July/07.07.2021/MC Bank Statement June-2021.xlsx
+++ b/Symphony/2021/July/07.07.2021/MC Bank Statement June-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -6007,9 +6007,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6292,14 +6292,14 @@
         <v>202</v>
       </c>
       <c r="B9" s="128">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C9" s="121"/>
       <c r="D9" s="129"/>
       <c r="E9" s="129"/>
       <c r="F9" s="129"/>
       <c r="G9" s="129">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="H9" s="129"/>
       <c r="I9" s="129"/>
@@ -6314,7 +6314,7 @@
       <c r="P9" s="131"/>
       <c r="Q9" s="125">
         <f t="shared" si="0"/>
-        <v>950</v>
+        <v>1650</v>
       </c>
       <c r="R9" s="126"/>
       <c r="S9" s="10"/>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="B37" s="146">
         <f>SUM(B6:B36)</f>
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="C37" s="147">
         <f t="shared" ref="C37:P37" si="1">SUM(C6:C36)</f>
@@ -7045,7 +7045,7 @@
       </c>
       <c r="G37" s="147">
         <f>SUM(G6:G36)</f>
-        <v>430</v>
+        <v>630</v>
       </c>
       <c r="H37" s="147">
         <f t="shared" si="1"/>
@@ -7085,7 +7085,7 @@
       </c>
       <c r="Q37" s="149">
         <f>SUM(Q6:Q36)</f>
-        <v>4180</v>
+        <v>4880</v>
       </c>
       <c r="S37" s="341" t="s">
         <v>70</v>
@@ -9091,11 +9091,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9110,6 +9105,11 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -32241,8 +32241,8 @@
   </sheetPr>
   <dimension ref="A1:AC223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
